--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp7-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp7-Eng.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N2">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O2">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P2">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q2">
-        <v>11.00055154212222</v>
+        <v>18.10790506630556</v>
       </c>
       <c r="R2">
-        <v>99.0049638791</v>
+        <v>162.97114559675</v>
       </c>
       <c r="S2">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="T2">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>126.9743</v>
       </c>
       <c r="O3">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P3">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q3">
         <v>3.101699983888889</v>
@@ -635,10 +635,10 @@
         <v>27.915299855</v>
       </c>
       <c r="S3">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="T3">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N4">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O4">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P4">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q4">
-        <v>0.653348568911111</v>
+        <v>0.8493645326999998</v>
       </c>
       <c r="R4">
-        <v>5.8801371202</v>
+        <v>7.644280794299999</v>
       </c>
       <c r="S4">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="T4">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N5">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q5">
-        <v>0.3620611206055556</v>
+        <v>0.4332571003277777</v>
       </c>
       <c r="R5">
-        <v>3.25855008545</v>
+        <v>3.899313902949999</v>
       </c>
       <c r="S5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="T5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
     </row>
   </sheetData>
